--- a/Project Management/04.開発/forest_healthcare/excel/Check_List.xlsx
+++ b/Project Management/04.開発/forest_healthcare/excel/Check_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project\Project Management\04.開発\forest_healthcare\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B0064-0BD2-B541-82D6-ADFFD8F7EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD438A29-D27B-4C6D-B350-72CE6F41371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28300" yWindow="1380" windowWidth="28180" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -99,6 +99,78 @@
   <si>
     <t>解決
 Solve</t>
+  </si>
+  <si>
+    <t>health knowledge image error</t>
+  </si>
+  <si>
+    <t>C&amp;S image error</t>
+  </si>
+  <si>
+    <t>home page phone size error</t>
+  </si>
+  <si>
+    <t>home article image error and article size (phone)</t>
+  </si>
+  <si>
+    <t>doctor list image error</t>
+  </si>
+  <si>
+    <t>booking form (phone size error)</t>
+  </si>
+  <si>
+    <t>C&amp;S detail (laptop size error)</t>
+  </si>
+  <si>
+    <t>can not access health knowledge (404 error)</t>
+  </si>
+  <si>
+    <t>mental health (phone screen size)</t>
+  </si>
+  <si>
+    <t>mental test (phone size) and can not access</t>
+  </si>
+  <si>
+    <t>about us (phone size)</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>contact us (phone size)</t>
+  </si>
+  <si>
+    <t>login (phone size)</t>
+  </si>
+  <si>
+    <t>sign up (phone size)</t>
+  </si>
+  <si>
+    <t>can not access login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital </t>
+  </si>
+  <si>
+    <t>*appointment patient detail view can not see</t>
+  </si>
+  <si>
+    <t>doctor image error</t>
+  </si>
+  <si>
+    <t>user list can not see</t>
+  </si>
+  <si>
+    <t>profile update can not do</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>dashboard can not access</t>
+  </si>
+  <si>
+    <t>can not access appointment page</t>
   </si>
 </sst>
 </file>
@@ -108,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +282,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -610,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,18 +724,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -715,16 +789,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -732,6 +801,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,7 +1137,7 @@
       <selection activeCell="C7" sqref="C7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -1087,8 +1168,8 @@
       <c r="A2" s="12"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="17" thickBot="1"/>
-    <row r="5" spans="1:17" ht="17" thickTop="1">
+    <row r="4" spans="1:17" ht="16" thickBot="1"/>
+    <row r="5" spans="1:17" ht="16" thickTop="1">
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1106,73 +1187,73 @@
       <c r="B6" s="17"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="96">
+    <row r="7" spans="1:17" ht="95.5">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="17"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="47">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:17" ht="46">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:17" ht="17" thickTop="1">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="16" thickBot="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:17" ht="16" thickTop="1">
       <c r="A12" s="12"/>
       <c r="N12" s="13"/>
     </row>
@@ -1184,44 +1265,44 @@
       <c r="A14" s="12"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1">
+    <row r="15" spans="1:17" ht="16" thickBot="1">
       <c r="A15" s="12"/>
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="37" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="37" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="37" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="19" customHeight="1">
@@ -1250,48 +1331,48 @@
     </row>
     <row r="25" spans="1:14" ht="31" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14" ht="33">
+    <row r="26" spans="1:14" ht="32.5">
       <c r="A26" s="12"/>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14" ht="33">
+    <row r="27" spans="1:14" ht="32.5">
       <c r="A27" s="12"/>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14">
@@ -1306,119 +1387,119 @@
       <c r="A30" s="12"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="39">
+    <row r="31" spans="1:14" ht="38.5">
       <c r="A31" s="12"/>
-      <c r="B31" s="49"/>
+      <c r="B31" s="47"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="24">
+    <row r="32" spans="1:14" ht="23.5">
       <c r="A32" s="12"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="39">
+    <row r="33" spans="1:14" ht="38.5">
       <c r="A33" s="12"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="24">
+    <row r="34" spans="1:14" ht="23.5">
       <c r="A34" s="12"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="24">
+    <row r="35" spans="1:14" ht="23.5">
       <c r="A35" s="12"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="24">
+    <row r="36" spans="1:14" ht="23.5">
       <c r="A36" s="12"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="24">
+    <row r="37" spans="1:14" ht="23.5">
       <c r="A37" s="12"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" ht="21">
       <c r="A38" s="12"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="56"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="51"/>
       <c r="N38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="21">
       <c r="A39" s="12"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="56"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="12"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="59"/>
+    <row r="41" spans="1:14" ht="16" thickBot="1">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:G52"/>
+  <dimension ref="A2:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
@@ -1430,7 +1511,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="66">
+    <row r="2" spans="1:7" ht="63">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1530,7 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1459,7 +1540,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -1467,11 +1550,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A52" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A57" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -1483,7 +1568,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1495,7 +1582,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -1507,7 +1596,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -1519,7 +1610,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -1531,7 +1624,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -1543,7 +1638,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -1555,7 +1652,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1567,7 +1666,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -1579,7 +1680,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -1591,7 +1694,9 @@
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -1603,7 +1708,9 @@
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -1615,7 +1722,9 @@
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -1639,7 +1748,9 @@
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="61" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -1651,7 +1762,9 @@
         <v>17</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1663,65 +1776,60 @@
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1735,10 +1843,12 @@
         <v>24</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
@@ -1747,10 +1857,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
@@ -1759,10 +1871,12 @@
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
@@ -1771,10 +1885,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
@@ -1785,8 +1901,8 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
@@ -2053,8 +2169,68 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>